--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE339F48-3062-4E78-AF7F-47568AE60FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F2331-FB41-4974-90F1-9CA9F7CF7A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13170" yWindow="0" windowWidth="15630" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="401">
   <si>
     <t>addi</t>
   </si>
@@ -693,135 +694,708 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>rv32i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csrrc</t>
+  </si>
+  <si>
+    <t>csrrs</t>
+  </si>
+  <si>
+    <t>csrrw</t>
+  </si>
+  <si>
+    <t>csrrci</t>
+  </si>
+  <si>
+    <t>csrrsi</t>
+  </si>
+  <si>
+    <t>csrrwi</t>
+  </si>
+  <si>
+    <t>zimm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; x[rs1]</t>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | x[rs1]</t>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = x[rs1]</t>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; zimm</t>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | zimm</t>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = zimm</t>
+  </si>
+  <si>
+    <t>csr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv32Zifencei / rv32Zicsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst[31:7]=25'd0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst[20]=1, inst[31:21|19:7]=24'd0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RasiseException(Breakpoint)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RasiseException(EnvironmentCall)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>beqz</t>
+  </si>
+  <si>
+    <t>bgt</t>
+  </si>
+  <si>
+    <t>bgtu</t>
+  </si>
+  <si>
+    <t>bgtz</t>
+  </si>
+  <si>
+    <t>ble</t>
+  </si>
+  <si>
+    <t>bleu</t>
+  </si>
+  <si>
+    <t>blez</t>
+  </si>
+  <si>
+    <t>bltz</t>
+  </si>
+  <si>
+    <t>bnez</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>csrr</t>
+  </si>
+  <si>
+    <t>csrc</t>
+  </si>
+  <si>
+    <t>csrci</t>
+  </si>
+  <si>
+    <t>csrw</t>
+  </si>
+  <si>
+    <t>csrwi</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>lla</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>rdcycle</t>
+  </si>
+  <si>
+    <t>rdcycleh</t>
+  </si>
+  <si>
+    <t>rdinstret</t>
+  </si>
+  <si>
+    <t>rdinstreth</t>
+  </si>
+  <si>
+    <t>rdtime</t>
+  </si>
+  <si>
+    <t>rdtimeh</t>
+  </si>
+  <si>
+    <t>ret</t>
+  </si>
+  <si>
+    <t>seqz</t>
+  </si>
+  <si>
+    <t>sgtz</t>
+  </si>
+  <si>
+    <t>sltz</t>
+  </si>
+  <si>
+    <t>snez</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>bgez</t>
+  </si>
+  <si>
+    <t>FULL NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch if equal to zero</t>
+  </si>
+  <si>
+    <t>branch if greater than or equal to 0</t>
+  </si>
+  <si>
+    <t>branch if greater than</t>
+  </si>
+  <si>
+    <t>branch if greater than, unsigned</t>
+  </si>
+  <si>
+    <t>branch if greater than zero</t>
+  </si>
+  <si>
+    <t>branch if less than or equal</t>
+  </si>
+  <si>
+    <t>branch if less than or equal, unsigned</t>
+  </si>
+  <si>
+    <t>branch if less than or equal to zero</t>
+  </si>
+  <si>
+    <t>branch if less than zero</t>
+  </si>
+  <si>
+    <t>branch if not equal to zero</t>
+  </si>
+  <si>
+    <t>control and state register read</t>
+  </si>
+  <si>
+    <t>control and state register clear</t>
+  </si>
+  <si>
+    <t>control and state register clear imm</t>
+  </si>
+  <si>
+    <t>control and state register write</t>
+  </si>
+  <si>
+    <t>control and state register write imm</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>jump register</t>
+  </si>
+  <si>
+    <t>load address</t>
+  </si>
+  <si>
+    <t>load immediate</t>
+  </si>
+  <si>
+    <t>load local address</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>negate</t>
+  </si>
+  <si>
+    <t>no operatioj</t>
+  </si>
+  <si>
+    <t>read cycle counter</t>
+  </si>
+  <si>
+    <t>read cycle counter high</t>
+  </si>
+  <si>
+    <t>read instruction-retired counter</t>
+  </si>
+  <si>
+    <t>read instruction-retired counter High</t>
+  </si>
+  <si>
+    <t>read time</t>
+  </si>
+  <si>
+    <t>read time high</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>set if equal to zero</t>
+  </si>
+  <si>
+    <t>set if greater than zero</t>
+  </si>
+  <si>
+    <t>set if less than zero</t>
+  </si>
+  <si>
+    <t>set if not equal to zero</t>
+  </si>
+  <si>
+    <t>tail call</t>
+  </si>
+  <si>
+    <t>blt rs2,rs1,offset  --u</t>
+  </si>
+  <si>
+    <t>blt x0,rs2,offset  -s</t>
+  </si>
+  <si>
+    <t>bge rs2,rs1,offset  -s</t>
+  </si>
+  <si>
+    <t>bge x0, rs2, offset  -s</t>
+  </si>
+  <si>
+    <t>blt rs1,x0,offset  -s</t>
+  </si>
+  <si>
+    <t>bne rs1,x0,offset</t>
+  </si>
+  <si>
+    <t>csrrs rd, csr, x0</t>
+  </si>
+  <si>
+    <t>csrrc x0, csr, rs1</t>
+  </si>
+  <si>
+    <t>csrrci x0, csr, zimm</t>
+  </si>
+  <si>
+    <t>csrrs x0, csr, rs1</t>
+  </si>
+  <si>
+    <t>csrrwi x0, csr, zimm</t>
+  </si>
+  <si>
+    <t>jalr x0, 0(rs1)</t>
+  </si>
+  <si>
+    <t>addi rd, rs1, 0</t>
+  </si>
+  <si>
+    <t>sub rd,x0,rs2</t>
+  </si>
+  <si>
+    <t>addi x0, x0, 0</t>
+  </si>
+  <si>
+    <t>xori rd, rs1, -1</t>
+  </si>
+  <si>
+    <t>csrrs rd, cycle, x0</t>
+  </si>
+  <si>
+    <t>csrrs rd, cycleh, x0</t>
+  </si>
+  <si>
+    <t>csrrs rd, instret, x0</t>
+  </si>
+  <si>
+    <t>csrrs rd, instreh, x0</t>
+  </si>
+  <si>
+    <t>csrrs rd, time, x0</t>
+  </si>
+  <si>
+    <t>csrrs rd, timeh, x0</t>
+  </si>
+  <si>
+    <t>jalr x0, 0(x1)</t>
+  </si>
+  <si>
+    <t>sltiu rd, rs1, 1</t>
+  </si>
+  <si>
+    <t>slt rd, x0, rs2</t>
+  </si>
+  <si>
+    <t>slt rd, rs1, x0</t>
+  </si>
+  <si>
+    <t>sltu rd, x0, rs2</t>
+  </si>
+  <si>
+    <t>beq rs1,x0,offset</t>
+  </si>
+  <si>
+    <t>bge rs1,x0,offset --s</t>
+  </si>
+  <si>
+    <t>blt rs2,rs1,offset  --s</t>
+  </si>
+  <si>
+    <t>bgeu rs2,rs1,offset  -u</t>
+  </si>
+  <si>
+    <t>jal x0, offset</t>
+  </si>
+  <si>
+    <t>lui 和/或 addi</t>
+  </si>
+  <si>
+    <t>auipc x6, offsetHi 加 jalr x0, offsetLo(x6)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">auipc rd, offsetHi + jalr rd, offsetLo(rd)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若省略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">rd, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auipc rd, offsetHi + lw rd, offsetLo(rd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auipc rd, offsetHi + addi rd, rd, offsetLo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv32im</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mulh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mulhsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mulhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = {x[rs1]*x[rs2]}[31:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = {x[rs1]*x[rs2]}[63:32]    -- s*s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = {x[rs1]*x[rs2]}[63:32]    -- s*u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = {x[rs1]*x[rs2]}[63:32]    -- u*u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = x[rs1]/x[rs2]    -- s/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = x[rs1]/x[rs2]    -- u/u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = x[rs1]%x[rs2]    -- s/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = x[rs1]%x[rs2]    -- u/u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>38</t>
-  </si>
-  <si>
-    <t>rv32i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rv32Zicsr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,6 +1435,19 @@
       <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -913,17 +1500,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -938,15 +1519,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,6 +1529,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,18 +1851,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08738A-01D5-4449-8744-5099DC0A4DD7}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="4" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.75" style="3" customWidth="1"/>
@@ -1320,849 +1910,1319 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="A2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="16" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="16" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="16" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="16" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="16" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="4" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="16" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="17"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="16" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="16" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="16" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="16" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="8" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="8" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="8" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="8" t="s">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="4" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="8" t="s">
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="8" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="8" t="s">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C21" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="8" t="s">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>131</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="4" t="s">
+      <c r="I23" s="15"/>
+      <c r="J23" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="11"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="9" t="s">
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="11"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="9" t="s">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="11"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="9" t="s">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="9" t="s">
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="16" t="s">
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="16" t="s">
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="8" t="s">
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="8" t="s">
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="8" t="s">
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="8" t="s">
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
       <c r="H36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="8" t="s">
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="6" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15" t="s">
         <v>152</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="6"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="6"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="6" t="s">
+        <v>388</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="48">
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:H38"/>
@@ -2184,6 +3244,11 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E23:F27"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="D13:D21"/>
     <mergeCell ref="D3:D12"/>
     <mergeCell ref="F3:F12"/>
     <mergeCell ref="E15:E17"/>
@@ -2191,11 +3256,21 @@
     <mergeCell ref="F13:F22"/>
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E23:F27"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="J41:J48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E41:F46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="E50:E57"/>
+    <mergeCell ref="F50:F57"/>
+    <mergeCell ref="G50:G57"/>
+    <mergeCell ref="I50:I57"/>
+    <mergeCell ref="J50:J57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2203,11 +3278,452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F32AB-EE6D-4057-85E2-F941614AF95D}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" style="12" customWidth="1"/>
+    <col min="2" max="2" width="43.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D609A2B4-8292-48E8-B4B9-9B7D2C2AC07C}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F2331-FB41-4974-90F1-9CA9F7CF7A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC123A-C233-4C89-8C71-466FADDE4DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="410">
   <si>
     <t>addi</t>
   </si>
@@ -835,9 +835,6 @@
     <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | x[rs1]</t>
   </si>
   <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = x[rs1]</t>
-  </si>
-  <si>
     <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; zimm</t>
   </si>
   <si>
@@ -893,9 +890,6 @@
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>47</t>
   </si>
   <si>
     <t>48</t>
@@ -1389,6 +1383,49 @@
   </si>
   <si>
     <t>53</t>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = x[rs1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>0011000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unimp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">csrrw </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1540,13 +1577,13 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1851,11 +1888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08738A-01D5-4449-8744-5099DC0A4DD7}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N36" sqref="N36"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1926,33 +1963,33 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="16" t="s">
         <v>169</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -1961,23 +1998,23 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="11" t="s">
         <v>26</v>
       </c>
@@ -1987,22 +2024,22 @@
         <v>195</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="11" t="s">
         <v>34</v>
       </c>
@@ -2012,20 +2049,20 @@
         <v>196</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="11" t="s">
         <v>39</v>
       </c>
@@ -2035,20 +2072,20 @@
         <v>197</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="11" t="s">
         <v>41</v>
       </c>
@@ -2058,20 +2095,20 @@
         <v>198</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="11" t="s">
         <v>32</v>
       </c>
@@ -2081,20 +2118,20 @@
         <v>199</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="11" t="s">
         <v>36</v>
       </c>
@@ -2104,20 +2141,20 @@
         <v>200</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="11" t="s">
         <v>37</v>
       </c>
@@ -2127,22 +2164,22 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="11" t="s">
         <v>30</v>
       </c>
@@ -2152,20 +2189,20 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="11" t="s">
         <v>28</v>
       </c>
@@ -2175,26 +2212,26 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
         <v>142</v>
       </c>
       <c r="K13" s="6" t="s">
@@ -2206,22 +2243,22 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="6" t="s">
         <v>154</v>
       </c>
@@ -2231,22 +2268,22 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2256,20 +2293,20 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="6" t="s">
         <v>16</v>
       </c>
@@ -2279,20 +2316,20 @@
         <v>207</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="6" t="s">
         <v>10</v>
       </c>
@@ -2302,22 +2339,22 @@
         <v>208</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="6" t="s">
         <v>155</v>
       </c>
@@ -2327,20 +2364,20 @@
         <v>209</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="6" t="s">
         <v>156</v>
       </c>
@@ -2350,22 +2387,22 @@
         <v>210</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="6" t="s">
         <v>7</v>
       </c>
@@ -2375,20 +2412,20 @@
         <v>211</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="6" t="s">
         <v>4</v>
       </c>
@@ -2398,7 +2435,7 @@
         <v>212</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>158</v>
@@ -2409,12 +2446,12 @@
       <c r="E22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="3" t="s">
         <v>65</v>
       </c>
@@ -2427,24 +2464,24 @@
         <v>213</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15" t="s">
+      <c r="I23" s="16"/>
+      <c r="J23" s="16" t="s">
         <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -2456,20 +2493,20 @@
         <v>214</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
@@ -2479,20 +2516,20 @@
         <v>215</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
       <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
@@ -2502,20 +2539,20 @@
         <v>216</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
@@ -2525,20 +2562,20 @@
         <v>217</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="7" t="s">
         <v>174</v>
       </c>
@@ -2548,28 +2585,28 @@
         <v>218</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="16"/>
       <c r="H28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="16" t="s">
         <v>178</v>
       </c>
       <c r="K28" s="11" t="s">
@@ -2581,20 +2618,20 @@
         <v>219</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="11" t="s">
         <v>50</v>
       </c>
@@ -2604,20 +2641,20 @@
         <v>220</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
       <c r="H30" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="11" t="s">
         <v>52</v>
       </c>
@@ -2627,26 +2664,26 @@
         <v>221</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="16" t="s">
         <v>182</v>
       </c>
       <c r="K31" s="6" t="s">
@@ -2658,20 +2695,20 @@
         <v>222</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
       <c r="K32" s="6" t="s">
         <v>56</v>
       </c>
@@ -2681,20 +2718,20 @@
         <v>223</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="6" t="s">
         <v>179</v>
       </c>
@@ -2704,20 +2741,20 @@
         <v>224</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
       <c r="H34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="6" t="s">
         <v>58</v>
       </c>
@@ -2727,20 +2764,20 @@
         <v>225</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="6" t="s">
         <v>180</v>
       </c>
@@ -2750,20 +2787,20 @@
         <v>226</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="6" t="s">
         <v>60</v>
       </c>
@@ -2773,21 +2810,21 @@
         <v>227</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16" t="s">
         <v>152</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -2802,17 +2839,17 @@
         <v>228</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="3" t="s">
         <v>187</v>
       </c>
@@ -2825,7 +2862,7 @@
         <v>229</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>191</v>
@@ -2833,13 +2870,13 @@
       <c r="D39" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
       <c r="J39" s="3" t="s">
         <v>193</v>
       </c>
@@ -2849,7 +2886,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -2864,370 +2901,456 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15" t="s">
+      <c r="E41" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
         <v>151</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>246</v>
+      <c r="J41" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>241</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
       <c r="K42" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
       <c r="K43" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
         <v>238</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
       <c r="K44" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
       <c r="K45" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
       <c r="K46" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
+        <v>246</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
       <c r="K47" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="10" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="A49" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>381</v>
-      </c>
+      <c r="A50" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+        <v>370</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="H51" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
+        <v>161</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="K51" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+        <v>371</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
       <c r="H52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
+        <v>165</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
       <c r="K52" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+        <v>372</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
       <c r="H53" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
+        <v>166</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
       <c r="K53" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+        <v>373</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
       <c r="H54" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
       <c r="K54" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+        <v>374</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
       <c r="H55" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
+        <v>164</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
       <c r="K55" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+        <v>375</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
+        <v>376</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="6" t="s">
-        <v>388</v>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C61" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E41:F46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="E23:F27"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="E31:E36"/>
@@ -3244,33 +3367,11 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E23:F27"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="J41:J48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="E41:F46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="E50:E57"/>
-    <mergeCell ref="F50:F57"/>
-    <mergeCell ref="G50:G57"/>
-    <mergeCell ref="I50:I57"/>
-    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3299,7 +3400,7 @@
         <v>148</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>150</v>
@@ -3307,409 +3408,409 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC123A-C233-4C89-8C71-466FADDE4DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3D5E3-2850-498B-9DF6-9B3E085AD1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="454">
   <si>
     <t>addi</t>
   </si>
@@ -1420,11 +1420,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">csrrw </t>
+    <t>NOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读后写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSRs_ADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSRs_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtvec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mepc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mstatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mscratch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'h305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'h342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'h341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'h304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'h300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'h340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle[31:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle[63:32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'hc00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'hc80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FULL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Exception Cause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Trap Vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Exception PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Interrupt Enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Interrupt Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Trap Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Scratch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csrrw rd=0 csr=0xc00 rs1=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">unimplemented(c0001073 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>00000000)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从机器模式(M-MODE)返回到先前的特权级别(U-MODE or S-MODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Return (pc = mepc, mstatus[MIE] = mstatu[MPIE])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存发生异常时处理器需要跳转到的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向 (保存) 发生异常的指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指示发生异常的种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出目前正准备处理的中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指出处理器目前能处理和必须忽略的中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时存放一个字大小的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存了陷入 (trap) 的附加信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存全局中断使能，以及许多其他的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Time Cycle Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Time Cycle High</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,21 +1637,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1486,8 +1666,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1524,6 +1716,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1537,53 +1735,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1888,1442 +2098,1432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08738A-01D5-4449-8744-5099DC0A4DD7}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="58.25" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="58.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="60.625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="L1" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="11" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="3" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="11" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="3" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="11" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="3" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="11" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="11" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="11" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="3" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="11" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="6" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="3" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="6" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="3" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="6" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="3" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="6" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="6" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="6" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="3" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="6" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="3" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="6" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="3" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="3" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="3" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="7" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="3" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="7" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="3" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="7" t="s">
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="3" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="7" t="s">
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="3" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="11" t="s">
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="3" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="11" t="s">
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="3" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="3" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="6" t="s">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="3" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="6" t="s">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="3" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="6" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="3" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="6" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="3" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="6" t="s">
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="3" t="s">
+      <c r="D38" s="18"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="3" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="8" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
+      <c r="L41" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="3" t="s">
+      <c r="D42" s="18"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="10" t="s">
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="3" t="s">
+      <c r="D43" s="18"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="10" t="s">
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16" t="s">
+      <c r="D44" s="18"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="10" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="3" t="s">
+      <c r="D45" s="18"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="10" t="s">
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="3" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="10" t="s">
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16" t="s">
+      <c r="D47" s="18"/>
+      <c r="E47" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="10" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="10" t="s">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="14" t="s">
+      <c r="J49" s="17"/>
+      <c r="K49" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I51" s="16" t="s">
+      <c r="I51" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="J51" s="16" t="s">
+      <c r="J51" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="3" t="s">
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="6" t="s">
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="3" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="6" t="s">
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="3" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="6" t="s">
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="3" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="6" t="s">
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="3" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="6" t="s">
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="3" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="6" t="s">
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="3" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="6" t="s">
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="4" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C61" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="I41:I46"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="D51:D58"/>
     <mergeCell ref="E51:E58"/>
@@ -3331,18 +3531,22 @@
     <mergeCell ref="G51:G58"/>
     <mergeCell ref="I51:I58"/>
     <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="E23:F27"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
     <mergeCell ref="D41:D48"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="E48:I48"/>
     <mergeCell ref="G41:G43"/>
     <mergeCell ref="G44:G46"/>
     <mergeCell ref="E41:F46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="E23:F27"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
     <mergeCell ref="D13:D21"/>
     <mergeCell ref="D3:D12"/>
     <mergeCell ref="F3:F12"/>
@@ -3367,11 +3571,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3380,438 +3579,458 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F32AB-EE6D-4057-85E2-F941614AF95D}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" style="12" customWidth="1"/>
-    <col min="2" max="2" width="43.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="12" style="10" customWidth="1"/>
+    <col min="2" max="2" width="43.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>364</v>
       </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3821,239 +4040,410 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D609A2B4-8292-48E8-B4B9-9B7D2C2AC07C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="4.125" customWidth="1"/>
-    <col min="4" max="4" width="6.25" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="13" customWidth="1"/>
+    <col min="5" max="5" width="4.75" style="13" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="13" customWidth="1"/>
+    <col min="8" max="9" width="6.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="26.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="40.875" style="21" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="J7" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="J8" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="J9" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E11" s="2" t="s">
+      <c r="J10" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E12" s="2" t="s">
+      <c r="J11" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E13" s="2" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E14" s="2" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="13" t="s">
         <v>129</v>
       </c>
     </row>

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3D5E3-2850-498B-9DF6-9B3E085AD1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138F01DB-88FE-4D9E-B0DC-11F4060646D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="455">
   <si>
     <t>addi</t>
   </si>
@@ -123,9 +123,6 @@
     <t>x[rd] = x[rs1] ^ x[rs2]</t>
   </si>
   <si>
-    <t>sll</t>
-  </si>
-  <si>
     <t>x[rd] = x[rs1] &lt;&lt; x[rs2]</t>
   </si>
   <si>
@@ -829,19 +826,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; x[rs1]</t>
-  </si>
-  <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | x[rs1]</t>
-  </si>
-  <si>
     <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; zimm</t>
-  </si>
-  <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | zimm</t>
-  </si>
-  <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = zimm</t>
   </si>
   <si>
     <t>csr</t>
@@ -1620,6 +1605,30 @@
   </si>
   <si>
     <t>Machine Time Cycle High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | zimm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = zimm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] | x[rs1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; x[rs1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zimm 无需符号拓展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1775,18 +1784,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,6 +1791,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2101,8 +2110,8 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41:B49"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2118,93 +2127,93 @@
     <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="58.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="60.625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="60.625" style="15" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>408</v>
+      <c r="L1" s="15" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="A2" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>168</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>24</v>
@@ -2212,1348 +2221,1321 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="18"/>
+        <v>230</v>
+      </c>
+      <c r="D10" s="21"/>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+        <v>162</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+        <v>161</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>133</v>
+      <c r="D13" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="17"/>
+        <v>156</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="18"/>
       <c r="H13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
-        <v>176</v>
+        <v>160</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
+        <v>175</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+        <v>165</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+        <v>42</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>182</v>
+      <c r="I31" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="E37" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="K37" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
+      <c r="A40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17" t="s">
-        <v>151</v>
+        <v>233</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>245</v>
+      <c r="I41" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>240</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>409</v>
+        <v>394</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+        <v>232</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="8" t="s">
-        <v>240</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
       <c r="K43" s="8" t="s">
-        <v>239</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18" t="s">
         <v>237</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
       <c r="K44" s="8" t="s">
-        <v>243</v>
+        <v>450</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="8" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
+        <v>234</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+        <v>241</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+        <v>242</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="J49" s="17"/>
+        <v>400</v>
+      </c>
+      <c r="J49" s="18"/>
       <c r="K49" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L49" s="19" t="s">
-        <v>442</v>
+        <v>438</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
+      <c r="A50" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D51" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J51" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>169</v>
-      </c>
       <c r="K51" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+        <v>366</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
       <c r="K52" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+        <v>367</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
       <c r="H53" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+        <v>165</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
+        <v>368</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+        <v>166</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+        <v>369</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+        <v>370</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
       <c r="H56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
       <c r="K56" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+        <v>371</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
       <c r="H57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+        <v>162</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+        <v>372</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
       <c r="H58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+        <v>161</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
       <c r="K58" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="E23:F27"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="E41:F46"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="D31:D36"/>
@@ -3570,7 +3552,37 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E23:F27"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E41:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3596,431 +3608,431 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -4043,7 +4055,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4059,392 +4071,392 @@
     <col min="10" max="10" width="9.625" style="10" customWidth="1"/>
     <col min="11" max="11" width="12.625" style="10" customWidth="1"/>
     <col min="12" max="12" width="26.625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="40.875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="40.875" style="17" customWidth="1"/>
     <col min="14" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>408</v>
+        <v>423</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>444</v>
+        <v>428</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>445</v>
+        <v>429</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>446</v>
+        <v>427</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>448</v>
+        <v>430</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>443</v>
       </c>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>447</v>
+        <v>431</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>442</v>
       </c>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>450</v>
+        <v>432</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>449</v>
+        <v>433</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>451</v>
+        <v>434</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138F01DB-88FE-4D9E-B0DC-11F4060646D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F886D0-C1A9-439B-90E4-1461B55A5DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="456">
   <si>
     <t>addi</t>
   </si>
@@ -824,9 +824,6 @@
   <si>
     <t>zimm</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; zimm</t>
   </si>
   <si>
     <t>csr</t>
@@ -1493,10 +1490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mtval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1620,15 +1613,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; x[rs1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zimm 无需符号拓展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'h344?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12'h343?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; ~x[rs1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; ~zimm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zimm 零拓展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2110,8 +2115,8 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2166,7 +2171,7 @@
         <v>149</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2186,10 +2191,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
@@ -2221,10 +2226,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
@@ -2247,10 +2252,10 @@
         <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="18" t="s">
@@ -2272,7 +2277,7 @@
         <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>37</v>
@@ -2295,7 +2300,7 @@
         <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>39</v>
@@ -2318,7 +2323,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>31</v>
@@ -2341,7 +2346,7 @@
         <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>34</v>
@@ -2364,7 +2369,7 @@
         <v>199</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>230</v>
@@ -2387,7 +2392,7 @@
         <v>200</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -2412,7 +2417,7 @@
         <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>27</v>
@@ -2435,7 +2440,7 @@
         <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
@@ -2466,7 +2471,7 @@
         <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>17</v>
@@ -2491,7 +2496,7 @@
         <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
@@ -2516,7 +2521,7 @@
         <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -2539,7 +2544,7 @@
         <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
@@ -2562,7 +2567,7 @@
         <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -2587,7 +2592,7 @@
         <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2610,7 +2615,7 @@
         <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
@@ -2635,7 +2640,7 @@
         <v>210</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
@@ -2658,7 +2663,7 @@
         <v>211</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>157</v>
@@ -2687,7 +2692,7 @@
         <v>212</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>41</v>
@@ -2716,7 +2721,7 @@
         <v>213</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>43</v>
@@ -2739,7 +2744,7 @@
         <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>45</v>
@@ -2762,7 +2767,7 @@
         <v>215</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>42</v>
@@ -2785,7 +2790,7 @@
         <v>216</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>44</v>
@@ -2808,7 +2813,7 @@
         <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>46</v>
@@ -2841,7 +2846,7 @@
         <v>218</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>48</v>
@@ -2864,7 +2869,7 @@
         <v>219</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>50</v>
@@ -2887,7 +2892,7 @@
         <v>220</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>52</v>
@@ -2918,7 +2923,7 @@
         <v>221</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>54</v>
@@ -2941,7 +2946,7 @@
         <v>222</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>60</v>
@@ -2964,7 +2969,7 @@
         <v>223</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>56</v>
@@ -2987,7 +2992,7 @@
         <v>224</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>61</v>
@@ -3010,7 +3015,7 @@
         <v>225</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>58</v>
@@ -3033,7 +3038,7 @@
         <v>226</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>182</v>
@@ -3062,7 +3067,7 @@
         <v>227</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>129</v>
@@ -3085,7 +3090,7 @@
         <v>228</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>190</v>
@@ -3109,7 +3114,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -3124,10 +3129,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>233</v>
@@ -3136,7 +3141,7 @@
         <v>132</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18" t="s">
@@ -3149,21 +3154,21 @@
         <v>151</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>232</v>
@@ -3178,12 +3183,12 @@
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>231</v>
@@ -3198,15 +3203,15 @@
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>236</v>
@@ -3223,15 +3228,15 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>235</v>
@@ -3246,12 +3251,12 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>234</v>
@@ -3266,22 +3271,22 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="8" t="s">
-        <v>238</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D47" s="21"/>
       <c r="E47" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -3289,19 +3294,19 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -3309,25 +3314,25 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>160</v>
@@ -3336,19 +3341,19 @@
         <v>160</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -3363,16 +3368,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>167</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>169</v>
@@ -3390,15 +3395,15 @@
         <v>168</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="18"/>
@@ -3410,15 +3415,15 @@
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="18"/>
@@ -3430,15 +3435,15 @@
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="18"/>
@@ -3450,15 +3455,15 @@
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
       <c r="K54" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="18"/>
@@ -3470,15 +3475,15 @@
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
       <c r="K55" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="18"/>
@@ -3490,15 +3495,15 @@
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="18"/>
@@ -3510,15 +3515,15 @@
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="K57" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="18"/>
@@ -3530,11 +3535,43 @@
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="K58" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E41:F46"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:F27"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="A2:K2"/>
@@ -3551,38 +3588,6 @@
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="J28:J30"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:F27"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="E41:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3611,7 +3616,7 @@
         <v>147</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>149</v>
@@ -3619,420 +3624,420 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -4055,7 +4060,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4101,16 +4106,16 @@
         <v>123</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>406</v>
-      </c>
       <c r="L1" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4139,16 +4144,16 @@
         <v>124</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4180,13 +4185,13 @@
         <v>414</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4215,16 +4220,16 @@
         <v>126</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4253,16 +4258,16 @@
         <v>127</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -4292,16 +4297,16 @@
         <v>128</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -4325,16 +4330,16 @@
         <v>121</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4357,16 +4362,16 @@
         <v>122</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4383,16 +4388,16 @@
         <v>123</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4409,13 +4414,13 @@
         <v>124</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -4426,13 +4431,13 @@
         <v>125</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F886D0-C1A9-439B-90E4-1461B55A5DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122BE96-0902-420D-BDAE-827EC11A0D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="455">
   <si>
     <t>addi</t>
   </si>
@@ -1391,10 +1391,6 @@
   </si>
   <si>
     <t>00000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2115,8 +2111,8 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2171,7 +2167,7 @@
         <v>149</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2255,7 +2251,7 @@
         <v>363</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="18" t="s">
@@ -3132,7 +3128,7 @@
         <v>384</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>233</v>
@@ -3160,7 +3156,7 @@
         <v>393</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
@@ -3168,7 +3164,7 @@
         <v>385</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>232</v>
@@ -3183,12 +3179,15 @@
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>386</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>231</v>
@@ -3203,7 +3202,7 @@
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
@@ -3211,7 +3210,7 @@
         <v>383</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>236</v>
@@ -3228,15 +3227,18 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>247</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>235</v>
@@ -3251,12 +3253,15 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
       <c r="K45" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>234</v>
@@ -3271,15 +3276,12 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>240</v>
@@ -3322,7 +3324,7 @@
         <v>387</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>394</v>
@@ -3345,10 +3347,10 @@
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
@@ -3540,6 +3542,39 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="F28:F36"/>
+    <mergeCell ref="G3:G36"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="I3:I27"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:F27"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E5:E9"/>
     <mergeCell ref="I41:I46"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="D51:D58"/>
@@ -3555,39 +3590,6 @@
     <mergeCell ref="G41:G43"/>
     <mergeCell ref="G44:G46"/>
     <mergeCell ref="E41:F46"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:F27"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="F28:F36"/>
-    <mergeCell ref="G3:G36"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="I3:I27"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4031,13 +4033,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -4106,16 +4108,16 @@
         <v>123</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>405</v>
-      </c>
       <c r="L1" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4144,16 +4146,16 @@
         <v>124</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4182,16 +4184,16 @@
         <v>125</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4220,16 +4222,16 @@
         <v>126</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4258,16 +4260,16 @@
         <v>127</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -4297,16 +4299,16 @@
         <v>128</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -4330,16 +4332,16 @@
         <v>121</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4362,16 +4364,16 @@
         <v>122</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4388,16 +4390,16 @@
         <v>123</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4414,13 +4416,13 @@
         <v>124</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -4431,13 +4433,13 @@
         <v>125</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5122BE96-0902-420D-BDAE-827EC11A0D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D830D-247A-42DB-A14C-41C6C7F5B617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="455">
   <si>
     <t>addi</t>
   </si>
@@ -1745,7 +1745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,18 +1794,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2110,7 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08738A-01D5-4449-8744-5099DC0A4DD7}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
@@ -2171,19 +2172,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2201,19 +2202,19 @@
       <c r="E3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="20" t="s">
         <v>168</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2234,11 +2235,11 @@
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
@@ -2254,16 +2255,16 @@
         <v>449</v>
       </c>
       <c r="D5" s="21"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
@@ -2279,14 +2280,14 @@
         <v>37</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="9" t="s">
         <v>38</v>
       </c>
@@ -2302,14 +2303,14 @@
         <v>39</v>
       </c>
       <c r="D7" s="21"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
@@ -2325,14 +2326,14 @@
         <v>31</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
@@ -2348,14 +2349,14 @@
         <v>34</v>
       </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="9" t="s">
         <v>35</v>
       </c>
@@ -2374,11 +2375,11 @@
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="9" t="s">
         <v>36</v>
       </c>
@@ -2394,16 +2395,16 @@
         <v>29</v>
       </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
@@ -2419,14 +2420,14 @@
         <v>27</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2441,21 +2442,21 @@
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
         <v>141</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2472,17 +2473,17 @@
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="4" t="s">
         <v>153</v>
       </c>
@@ -2497,17 +2498,17 @@
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2522,15 +2523,15 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
@@ -2545,15 +2546,15 @@
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2568,17 +2569,17 @@
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="4" t="s">
         <v>154</v>
       </c>
@@ -2593,15 +2594,15 @@
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="4" t="s">
         <v>155</v>
       </c>
@@ -2616,17 +2617,17 @@
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2641,15 +2642,15 @@
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2670,12 +2671,12 @@
       <c r="E22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="1" t="s">
         <v>64</v>
       </c>
@@ -2693,19 +2694,19 @@
       <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
         <v>175</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -2722,15 +2723,15 @@
       <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="5" t="s">
         <v>172</v>
       </c>
@@ -2745,15 +2746,15 @@
       <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="5" t="s">
         <v>174</v>
       </c>
@@ -2768,15 +2769,15 @@
       <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="5" t="s">
         <v>171</v>
       </c>
@@ -2791,15 +2792,15 @@
       <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="5" t="s">
         <v>173</v>
       </c>
@@ -2817,20 +2818,20 @@
       <c r="D28" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="18"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="20" t="s">
         <v>177</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -2848,14 +2849,14 @@
         <v>48</v>
       </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="9" t="s">
         <v>49</v>
       </c>
@@ -2871,14 +2872,14 @@
         <v>50</v>
       </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="9" t="s">
         <v>51</v>
       </c>
@@ -2893,21 +2894,21 @@
       <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="20" t="s">
         <v>181</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -2924,15 +2925,15 @@
       <c r="C32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="4" t="s">
         <v>55</v>
       </c>
@@ -2947,15 +2948,15 @@
       <c r="C33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="4" t="s">
         <v>178</v>
       </c>
@@ -2970,15 +2971,15 @@
       <c r="C34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="4" t="s">
         <v>57</v>
       </c>
@@ -2993,15 +2994,15 @@
       <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="4" t="s">
         <v>179</v>
       </c>
@@ -3016,15 +3017,15 @@
       <c r="C36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="4" t="s">
         <v>59</v>
       </c>
@@ -3042,13 +3043,13 @@
       <c r="D37" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18" t="s">
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20" t="s">
         <v>151</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3069,11 +3070,11 @@
         <v>129</v>
       </c>
       <c r="D38" s="21"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="1" t="s">
         <v>186</v>
       </c>
@@ -3094,13 +3095,13 @@
       <c r="D39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="1" t="s">
         <v>192</v>
       </c>
@@ -3109,19 +3110,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -3136,20 +3137,20 @@
       <c r="D41" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="20" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="20" t="s">
         <v>239</v>
       </c>
       <c r="K41" s="8" t="s">
@@ -3170,14 +3171,14 @@
         <v>232</v>
       </c>
       <c r="D42" s="21"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="8" t="s">
         <v>448</v>
       </c>
@@ -3193,14 +3194,14 @@
         <v>231</v>
       </c>
       <c r="D43" s="21"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="8" t="s">
         <v>452</v>
       </c>
@@ -3216,16 +3217,16 @@
         <v>236</v>
       </c>
       <c r="D44" s="21"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20" t="s">
         <v>237</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
       <c r="K44" s="8" t="s">
         <v>447</v>
       </c>
@@ -3244,14 +3245,14 @@
         <v>235</v>
       </c>
       <c r="D45" s="21"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="8" t="s">
         <v>446</v>
       </c>
@@ -3267,14 +3268,14 @@
         <v>234</v>
       </c>
       <c r="D46" s="21"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
       <c r="K46" s="8" t="s">
         <v>453</v>
       </c>
@@ -3287,14 +3288,14 @@
         <v>240</v>
       </c>
       <c r="D47" s="21"/>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="8" t="s">
         <v>246</v>
       </c>
@@ -3307,14 +3308,14 @@
         <v>241</v>
       </c>
       <c r="D48" s="21"/>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
       <c r="K48" s="8" t="s">
         <v>245</v>
       </c>
@@ -3345,7 +3346,7 @@
       <c r="I49" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J49" s="18"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="8" t="s">
         <v>435</v>
       </c>
@@ -3354,19 +3355,19 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
@@ -3375,25 +3376,25 @@
       <c r="C51" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="20" t="s">
         <v>150</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="J51" s="20" t="s">
         <v>168</v>
       </c>
       <c r="K51" s="4" t="s">
@@ -3407,15 +3408,15 @@
       <c r="C52" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
       <c r="K52" s="4" t="s">
         <v>374</v>
       </c>
@@ -3427,15 +3428,15 @@
       <c r="C53" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="4" t="s">
         <v>375</v>
       </c>
@@ -3447,15 +3448,15 @@
       <c r="C54" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
       <c r="H54" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
       <c r="K54" s="4" t="s">
         <v>376</v>
       </c>
@@ -3467,15 +3468,15 @@
       <c r="C55" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
       <c r="K55" s="4" t="s">
         <v>377</v>
       </c>
@@ -3487,15 +3488,15 @@
       <c r="C56" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
       <c r="K56" s="4" t="s">
         <v>378</v>
       </c>
@@ -3507,15 +3508,15 @@
       <c r="C57" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
       <c r="K57" s="4" t="s">
         <v>379</v>
       </c>
@@ -3527,21 +3528,53 @@
       <c r="C58" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
       <c r="H58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
       <c r="K58" s="4" t="s">
         <v>380</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E41:F46"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="E31:E36"/>
@@ -3558,38 +3591,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="E23:F27"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="E41:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4061,8 +4062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D609A2B4-8292-48E8-B4B9-9B7D2C2AC07C}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4383,12 +4384,7 @@
       <c r="B9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>123</v>
-      </c>
+      <c r="E9" s="22"/>
       <c r="J9" s="10" t="s">
         <v>416</v>
       </c>
@@ -4409,12 +4405,7 @@
       <c r="B10" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>124</v>
-      </c>
+      <c r="E10" s="22"/>
       <c r="J10" s="10" t="s">
         <v>419</v>
       </c>
@@ -4426,12 +4417,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>125</v>
-      </c>
+      <c r="E11" s="22"/>
       <c r="J11" s="10" t="s">
         <v>420</v>
       </c>
@@ -4443,28 +4429,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>126</v>
-      </c>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="E14" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D830D-247A-42DB-A14C-41C6C7F5B617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331B0DF-9A9D-4524-B14E-498CA4CCB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="458">
   <si>
     <t>addi</t>
   </si>
@@ -858,10 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RasiseException(EnvironmentCall)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -916,9 +912,6 @@
     <t>csrci</t>
   </si>
   <si>
-    <t>csrw</t>
-  </si>
-  <si>
     <t>csrwi</t>
   </si>
   <si>
@@ -1122,9 +1115,6 @@
   </si>
   <si>
     <t>csrrci x0, csr, zimm</t>
-  </si>
-  <si>
-    <t>csrrs x0, csr, rs1</t>
   </si>
   <si>
     <t>csrrwi x0, csr, zimm</t>
@@ -1632,12 +1622,36 @@
     <t>zimm 零拓展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RasiseException(EnvironmentCall) -&gt; pc = mtvec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csrw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csrrs x0, csr, rs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLEN-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLEN-2 ~ 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,6 +1700,20 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1745,7 +1773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,19 +1822,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2111,9 +2143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08738A-01D5-4449-8744-5099DC0A4DD7}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2168,53 +2200,53 @@
         <v>149</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>168</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2223,23 +2255,23 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
@@ -2249,22 +2281,22 @@
         <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
@@ -2274,20 +2306,20 @@
         <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="9" t="s">
         <v>38</v>
       </c>
@@ -2297,20 +2329,20 @@
         <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
@@ -2320,20 +2352,20 @@
         <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
@@ -2343,20 +2375,20 @@
         <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="9" t="s">
         <v>35</v>
       </c>
@@ -2366,20 +2398,20 @@
         <v>199</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="9" t="s">
         <v>36</v>
       </c>
@@ -2389,22 +2421,22 @@
         <v>200</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
@@ -2414,20 +2446,20 @@
         <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2437,26 +2469,26 @@
         <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
         <v>141</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2468,22 +2500,22 @@
         <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="4" t="s">
         <v>153</v>
       </c>
@@ -2493,22 +2525,22 @@
         <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2518,20 +2550,20 @@
         <v>205</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
@@ -2541,20 +2573,20 @@
         <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2564,22 +2596,22 @@
         <v>207</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="4" t="s">
         <v>154</v>
       </c>
@@ -2589,20 +2621,20 @@
         <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="4" t="s">
         <v>155</v>
       </c>
@@ -2612,22 +2644,22 @@
         <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2637,20 +2669,20 @@
         <v>210</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2692,7 @@
         <v>211</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>157</v>
@@ -2671,12 +2703,12 @@
       <c r="E22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="1" t="s">
         <v>64</v>
       </c>
@@ -2689,24 +2721,24 @@
         <v>212</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
         <v>175</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -2718,20 +2750,20 @@
         <v>213</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="5" t="s">
         <v>172</v>
       </c>
@@ -2741,20 +2773,20 @@
         <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="5" t="s">
         <v>174</v>
       </c>
@@ -2764,20 +2796,20 @@
         <v>215</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="5" t="s">
         <v>171</v>
       </c>
@@ -2787,20 +2819,20 @@
         <v>216</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="5" t="s">
         <v>173</v>
       </c>
@@ -2810,28 +2842,28 @@
         <v>217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="19" t="s">
         <v>177</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -2843,20 +2875,20 @@
         <v>218</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="9" t="s">
         <v>49</v>
       </c>
@@ -2866,20 +2898,20 @@
         <v>219</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="9" t="s">
         <v>51</v>
       </c>
@@ -2889,26 +2921,26 @@
         <v>220</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="19" t="s">
         <v>181</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -2920,20 +2952,20 @@
         <v>221</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="4" t="s">
         <v>55</v>
       </c>
@@ -2943,20 +2975,20 @@
         <v>222</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
       <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="4" t="s">
         <v>178</v>
       </c>
@@ -2966,20 +2998,20 @@
         <v>223</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="4" t="s">
         <v>57</v>
       </c>
@@ -2989,20 +3021,20 @@
         <v>224</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
       <c r="H35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="4" t="s">
         <v>179</v>
       </c>
@@ -3012,20 +3044,20 @@
         <v>225</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="4" t="s">
         <v>59</v>
       </c>
@@ -3035,21 +3067,21 @@
         <v>226</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20" t="s">
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19" t="s">
         <v>151</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3064,17 +3096,17 @@
         <v>227</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="1" t="s">
         <v>186</v>
       </c>
@@ -3087,7 +3119,7 @@
         <v>228</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>190</v>
@@ -3095,13 +3127,13 @@
       <c r="D39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="1" t="s">
         <v>192</v>
       </c>
@@ -3110,232 +3142,232 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20" t="s">
+      <c r="F41" s="19"/>
+      <c r="G41" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="19" t="s">
         <v>239</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
       <c r="K43" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
         <v>237</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
       <c r="K44" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
       <c r="K45" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
       <c r="K46" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="20" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
       <c r="K47" s="8" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="20" t="s">
+      <c r="D48" s="22"/>
+      <c r="E48" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
       <c r="K48" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>160</v>
@@ -3344,237 +3376,205 @@
         <v>160</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J49" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="J49" s="19"/>
       <c r="K49" s="8" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
+      <c r="A50" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D51" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="F51" s="20" t="s">
+      <c r="E51" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="F51" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="19" t="s">
         <v>168</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+        <v>362</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
       <c r="K52" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+        <v>363</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+        <v>364</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
       <c r="H54" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+        <v>365</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
+        <v>366</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+        <v>367</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
       <c r="H57" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+        <v>368</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="E41:F46"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="E31:E36"/>
@@ -3591,6 +3591,38 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="E23:F27"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E41:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3603,7 +3635,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3619,7 +3651,7 @@
         <v>147</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>149</v>
@@ -3627,420 +3659,420 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>265</v>
+        <v>453</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>334</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -4060,10 +4092,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D609A2B4-8292-48E8-B4B9-9B7D2C2AC07C}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4080,10 +4112,14 @@
     <col min="11" max="11" width="12.625" style="10" customWidth="1"/>
     <col min="12" max="12" width="26.625" style="10" customWidth="1"/>
     <col min="13" max="13" width="40.875" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="13"/>
+    <col min="14" max="14" width="9" style="13"/>
+    <col min="15" max="15" width="7.5" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14" style="10" customWidth="1"/>
+    <col min="17" max="38" width="9" style="10"/>
+    <col min="39" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
@@ -4109,19 +4145,25 @@
         <v>123</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
@@ -4147,19 +4189,22 @@
         <v>124</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>67</v>
       </c>
@@ -4185,19 +4230,19 @@
         <v>125</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>68</v>
       </c>
@@ -4223,19 +4268,19 @@
         <v>126</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>69</v>
       </c>
@@ -4261,20 +4306,20 @@
         <v>127</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>70</v>
       </c>
@@ -4300,20 +4345,20 @@
         <v>128</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>71</v>
       </c>
@@ -4333,19 +4378,19 @@
         <v>121</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>72</v>
       </c>
@@ -4365,77 +4410,78 @@
         <v>122</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="18"/>
       <c r="J9" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="18"/>
       <c r="J10" s="10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="18"/>
+      <c r="J11" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="22"/>
-      <c r="J11" s="10" t="s">
-        <v>420</v>
-      </c>
       <c r="K11" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="22"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E13" s="18"/>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PrjWorkspace\rv32\v2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prjs\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331B0DF-9A9D-4524-B14E-498CA4CCB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F9786C-288B-4B95-9409-A2CBE61EB5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="460">
   <si>
     <t>addi</t>
   </si>
@@ -1619,10 +1619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zimm 零拓展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RasiseException(EnvironmentCall) -&gt; pc = mtvec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1644,6 +1640,61 @@
   </si>
   <si>
     <t>中断位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc = mtvec -&gt; pc = CSRs[12'h305]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zimm 零拓展, 但零拓展的操作不在ID里做, 因为zimm就是rs1, 所以在EX里做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只完成了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pc_jmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mstatus</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1651,7 +1702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1716,6 +1767,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1773,7 +1830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1823,7 +1880,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1832,11 +1890,13 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2141,11 +2201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08738A-01D5-4449-8744-5099DC0A4DD7}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2161,8 +2221,9 @@
     <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="58.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="60.625" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="61.125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -2204,19 +2265,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2228,25 +2289,25 @@
       <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="23" t="s">
         <v>168</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2263,15 +2324,15 @@
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
@@ -2286,17 +2347,17 @@
       <c r="C5" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
@@ -2311,15 +2372,15 @@
       <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="9" t="s">
         <v>38</v>
       </c>
@@ -2334,15 +2395,15 @@
       <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
@@ -2357,15 +2418,15 @@
       <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="9" t="s">
         <v>32</v>
       </c>
@@ -2380,15 +2441,15 @@
       <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="9" t="s">
         <v>35</v>
       </c>
@@ -2403,15 +2464,15 @@
       <c r="C10" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="9" t="s">
         <v>36</v>
       </c>
@@ -2426,17 +2487,17 @@
       <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
@@ -2451,15 +2512,15 @@
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2474,21 +2535,21 @@
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="23"/>
+      <c r="J13" s="23" t="s">
         <v>141</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2505,17 +2566,17 @@
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="4" t="s">
         <v>153</v>
       </c>
@@ -2530,17 +2591,17 @@
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2555,15 +2616,15 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
@@ -2578,15 +2639,15 @@
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2601,17 +2662,17 @@
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="4" t="s">
         <v>154</v>
       </c>
@@ -2626,15 +2687,15 @@
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="4" t="s">
         <v>155</v>
       </c>
@@ -2649,17 +2710,17 @@
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2674,15 +2735,15 @@
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2703,12 +2764,12 @@
       <c r="E22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="19"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="1" t="s">
         <v>64</v>
       </c>
@@ -2726,19 +2787,19 @@
       <c r="C23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
         <v>175</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -2755,15 +2816,15 @@
       <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="5" t="s">
         <v>172</v>
       </c>
@@ -2778,15 +2839,15 @@
       <c r="C25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="5" t="s">
         <v>174</v>
       </c>
@@ -2801,15 +2862,15 @@
       <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="5" t="s">
         <v>171</v>
       </c>
@@ -2824,15 +2885,15 @@
       <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="5" t="s">
         <v>173</v>
       </c>
@@ -2847,23 +2908,23 @@
       <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="23" t="s">
         <v>177</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -2880,15 +2941,15 @@
       <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="9" t="s">
         <v>49</v>
       </c>
@@ -2903,15 +2964,15 @@
       <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="9" t="s">
         <v>51</v>
       </c>
@@ -2926,21 +2987,21 @@
       <c r="C31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="23" t="s">
         <v>181</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -2957,15 +3018,15 @@
       <c r="C32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="4" t="s">
         <v>55</v>
       </c>
@@ -2980,15 +3041,15 @@
       <c r="C33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="4" t="s">
         <v>178</v>
       </c>
@@ -3003,15 +3064,15 @@
       <c r="C34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="4" t="s">
         <v>57</v>
       </c>
@@ -3026,15 +3087,15 @@
       <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="4" t="s">
         <v>179</v>
       </c>
@@ -3049,15 +3110,15 @@
       <c r="C36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="4" t="s">
         <v>59</v>
       </c>
@@ -3072,16 +3133,16 @@
       <c r="C37" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19" t="s">
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23" t="s">
         <v>151</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3101,12 +3162,12 @@
       <c r="C38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="1" t="s">
         <v>186</v>
       </c>
@@ -3127,13 +3188,13 @@
       <c r="D39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="1" t="s">
         <v>192</v>
       </c>
@@ -3142,19 +3203,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -3166,23 +3227,23 @@
       <c r="C41" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19" t="s">
+      <c r="F41" s="23"/>
+      <c r="G41" s="23" t="s">
         <v>150</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="23" t="s">
         <v>239</v>
       </c>
       <c r="K41" s="8" t="s">
@@ -3202,15 +3263,15 @@
       <c r="C42" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
       <c r="K42" s="8" t="s">
         <v>445</v>
       </c>
@@ -3225,15 +3286,15 @@
       <c r="C43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="8" t="s">
         <v>449</v>
       </c>
@@ -3248,22 +3309,22 @@
       <c r="C44" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23" t="s">
         <v>237</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="8" t="s">
         <v>444</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -3276,15 +3337,15 @@
       <c r="C45" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
       <c r="H45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="8" t="s">
         <v>443</v>
       </c>
@@ -3299,15 +3360,15 @@
       <c r="C46" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="8" t="s">
         <v>450</v>
       </c>
@@ -3316,20 +3377,26 @@
       <c r="A47" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="C47" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
@@ -3339,20 +3406,20 @@
       <c r="C48" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>384</v>
       </c>
@@ -3378,203 +3445,238 @@
       <c r="I49" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J49" s="19"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="8" t="s">
         <v>432</v>
       </c>
       <c r="L49" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="20" t="s">
+      <c r="M49" s="25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="23" t="s">
         <v>150</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="23" t="s">
         <v>168</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
       <c r="H52" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
       <c r="K52" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
       <c r="K54" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
       <c r="H55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
       <c r="H56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
       <c r="K56" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
       <c r="H57" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
       <c r="K57" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
       <c r="H58" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
       <c r="K58" s="4" t="s">
         <v>377</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E41:F46"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="E31:E36"/>
@@ -3591,38 +3693,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="E23:F27"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="E41:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3813,13 +3883,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>301</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -4095,7 +4165,7 @@
   <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4157,10 +4227,10 @@
         <v>398</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4200,8 +4270,8 @@
       <c r="M2" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>457</v>
+      <c r="O2" s="20" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4478,7 +4548,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13" s="18"/>
-      <c r="N13" s="23"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E14" s="18"/>

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prjs\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F9786C-288B-4B95-9409-A2CBE61EB5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67508E86-2DA2-4A2C-A7F0-DC8DBC6EF445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>and</t>
   </si>
   <si>
-    <t>x[rd] = x[rs1] &amp; x[rs2]</t>
-  </si>
-  <si>
     <t>or</t>
   </si>
   <si>
@@ -854,10 +851,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RasiseException(Breakpoint)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -1108,19 +1101,10 @@
     <t>bne rs1,x0,offset</t>
   </si>
   <si>
-    <t>csrrs rd, csr, x0</t>
-  </si>
-  <si>
-    <t>csrrc x0, csr, rs1</t>
-  </si>
-  <si>
     <t>csrrci x0, csr, zimm</t>
   </si>
   <si>
     <t>csrrwi x0, csr, zimm</t>
-  </si>
-  <si>
-    <t>jalr x0, 0(rs1)</t>
   </si>
   <si>
     <t>addi rd, rs1, 0</t>
@@ -1392,10 +1376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读后写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSRs_ADDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1616,10 +1596,6 @@
   </si>
   <si>
     <t>x[rd] = CSRs[csr]; CSRs[csr] = CSRs[csr] &amp; ~zimm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RasiseException(EnvironmentCall) -&gt; pc = mtvec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1695,6 +1671,36 @@
       </rPr>
       <t>mstatus</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读后写, csrrw rd, csr, rs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csrrs rd, csr, x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csrrc x0, csr, rs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RasiseException(EnvironmentCall) -&gt; 
+pc = mtvec, mepc = 0x9c, mcause = 0xb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RasiseException(Breakpoint) -&gt; 
+mcause = 0x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x[rd] = x[rs1] &amp; x[rs2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jalr x0, 0(rs1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1830,7 +1836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1884,6 +1890,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,8 +1905,8 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2205,7 +2214,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41:D48"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2220,7 +2229,7 @@
     <col min="8" max="8" width="5.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="58.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="60" style="1" customWidth="1"/>
     <col min="12" max="12" width="61.125" style="15" customWidth="1"/>
     <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
@@ -2228,87 +2237,87 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="L1" s="15" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>24</v>
@@ -2316,1331 +2325,1331 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+        <v>440</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="24"/>
+        <v>229</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+        <v>160</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="9" t="s">
-        <v>28</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>132</v>
+      <c r="D13" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="23"/>
+        <v>155</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+        <v>144</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="24"/>
+      <c r="J22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
-        <v>175</v>
+        <v>159</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+        <v>164</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+        <v>162</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>181</v>
+      <c r="I31" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+        <v>53</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="E37" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="K37" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+        <v>128</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" s="23" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
+      <c r="A40" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23" t="s">
-        <v>150</v>
+        <v>232</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>239</v>
+      <c r="I41" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+        <v>231</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+        <v>230</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23" t="s">
-        <v>237</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+        <v>234</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+        <v>233</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
       <c r="K46" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="L47" s="15" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C47" s="8" t="s">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="23" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="L47" s="15" t="s">
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="26" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J49" s="23"/>
+        <v>391</v>
+      </c>
+      <c r="J49" s="24"/>
       <c r="K49" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="M49" s="25" t="s">
-        <v>459</v>
+        <v>425</v>
+      </c>
+      <c r="M49" s="21" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
+      <c r="A50" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D51" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>168</v>
-      </c>
       <c r="K51" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+        <v>357</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
       <c r="H52" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
       <c r="K52" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+        <v>358</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+        <v>164</v>
+      </c>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+        <v>359</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+        <v>165</v>
+      </c>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+        <v>360</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+        <v>162</v>
+      </c>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
       <c r="K55" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+        <v>361</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
       <c r="H56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+        <v>362</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
       <c r="H57" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+        <v>363</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+        <v>160</v>
+      </c>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
       <c r="K58" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3714,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3718,431 +3727,431 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>329</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>333</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -4165,7 +4174,7 @@
   <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4191,356 +4200,356 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>425</v>
-      </c>
       <c r="M6" s="17" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K7" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>426</v>
-      </c>
       <c r="M7" s="17" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E9" s="18"/>
       <c r="J9" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="18"/>
       <c r="J10" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E11" s="18"/>
       <c r="J11" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prjs\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67508E86-2DA2-4A2C-A7F0-DC8DBC6EF445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEB95D-0C7A-41A6-919B-90E91E4A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1520,10 +1520,6 @@
   </si>
   <si>
     <t>从机器模式(M-MODE)返回到先前的特权级别(U-MODE or S-MODE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine Return (pc = mepc, mstatus[MIE] = mstatu[MPIE])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1686,11 +1682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RasiseException(EnvironmentCall) -&gt; 
-pc = mtvec, mepc = 0x9c, mcause = 0xb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RasiseException(Breakpoint) -&gt; 
 mcause = 0x3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1701,6 +1692,27 @@
   </si>
   <si>
     <t>jalr x0, 0(rs1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RasiseException(EnvironmentCall) -&gt; 
+pc = mtvec, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mepc = 0x9c, mcause = 0xb</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Return -&gt; 
+pc = mepc, mstatus[MIE] = mstatu[MPIE]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1836,7 +1848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1893,6 +1905,15 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,9 +1925,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2213,8 +2231,8 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2274,19 +2292,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2298,25 +2316,25 @@
       <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="27" t="s">
         <v>167</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2333,15 +2351,15 @@
       <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
@@ -2354,19 +2372,19 @@
         <v>355</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="9" t="s">
         <v>32</v>
       </c>
@@ -2381,15 +2399,15 @@
       <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="9" t="s">
         <v>37</v>
       </c>
@@ -2404,15 +2422,15 @@
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="9" t="s">
         <v>39</v>
       </c>
@@ -2427,15 +2445,15 @@
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="9" t="s">
         <v>31</v>
       </c>
@@ -2450,15 +2468,15 @@
       <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="9" t="s">
         <v>34</v>
       </c>
@@ -2473,15 +2491,15 @@
       <c r="C10" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="9" t="s">
         <v>35</v>
       </c>
@@ -2496,17 +2514,17 @@
       <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="9" t="s">
         <v>29</v>
       </c>
@@ -2521,17 +2539,17 @@
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2544,21 +2562,21 @@
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="26" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
         <v>140</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2575,17 +2593,17 @@
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="4" t="s">
         <v>152</v>
       </c>
@@ -2600,17 +2618,17 @@
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2625,15 +2643,15 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
@@ -2648,15 +2666,15 @@
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2671,17 +2689,17 @@
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24" t="s">
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="4" t="s">
         <v>153</v>
       </c>
@@ -2696,15 +2714,15 @@
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="4" t="s">
         <v>154</v>
       </c>
@@ -2719,17 +2737,17 @@
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2744,15 +2762,15 @@
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2773,12 +2791,12 @@
       <c r="E22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I22" s="24"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2796,19 +2814,19 @@
       <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24" t="s">
+      <c r="I23" s="27"/>
+      <c r="J23" s="27" t="s">
         <v>174</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -2825,15 +2843,15 @@
       <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
       <c r="K24" s="5" t="s">
         <v>171</v>
       </c>
@@ -2848,15 +2866,15 @@
       <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="5" t="s">
         <v>173</v>
       </c>
@@ -2871,15 +2889,15 @@
       <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="5" t="s">
         <v>170</v>
       </c>
@@ -2894,15 +2912,15 @@
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="5" t="s">
         <v>172</v>
       </c>
@@ -2917,23 +2935,23 @@
       <c r="C28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="27" t="s">
         <v>176</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -2950,15 +2968,15 @@
       <c r="C29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
       <c r="K29" s="9" t="s">
         <v>48</v>
       </c>
@@ -2973,15 +2991,15 @@
       <c r="C30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
       <c r="K30" s="9" t="s">
         <v>50</v>
       </c>
@@ -2996,21 +3014,21 @@
       <c r="C31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="27" t="s">
         <v>180</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -3027,15 +3045,15 @@
       <c r="C32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
       <c r="K32" s="4" t="s">
         <v>54</v>
       </c>
@@ -3050,15 +3068,15 @@
       <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="4" t="s">
         <v>177</v>
       </c>
@@ -3073,15 +3091,15 @@
       <c r="C34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
       <c r="K34" s="4" t="s">
         <v>56</v>
       </c>
@@ -3096,15 +3114,15 @@
       <c r="C35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
       <c r="K35" s="4" t="s">
         <v>178</v>
       </c>
@@ -3119,15 +3137,15 @@
       <c r="C36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
       <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
       <c r="K36" s="4" t="s">
         <v>58</v>
       </c>
@@ -3142,16 +3160,16 @@
       <c r="C37" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24" t="s">
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27" t="s">
         <v>150</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3171,12 +3189,12 @@
       <c r="C38" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="1" t="s">
         <v>185</v>
       </c>
@@ -3197,13 +3215,13 @@
       <c r="D39" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="1" t="s">
         <v>191</v>
       </c>
@@ -3212,19 +3230,19 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -3236,30 +3254,30 @@
       <c r="C41" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24" t="s">
+      <c r="F41" s="27"/>
+      <c r="G41" s="27" t="s">
         <v>149</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="27" t="s">
         <v>238</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>385</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
@@ -3272,17 +3290,17 @@
       <c r="C42" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
       <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
       <c r="K42" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
@@ -3295,17 +3313,17 @@
       <c r="C43" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
       <c r="K43" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
@@ -3318,22 +3336,22 @@
       <c r="C44" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24" t="s">
+      <c r="D44" s="28"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27" t="s">
         <v>236</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
       <c r="K44" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
@@ -3346,17 +3364,17 @@
       <c r="C45" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
       <c r="K45" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
@@ -3369,17 +3387,17 @@
       <c r="C46" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -3392,20 +3410,20 @@
       <c r="C47" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="24" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="26" t="s">
-        <v>456</v>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="22" t="s">
+        <v>458</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.15">
@@ -3415,20 +3433,20 @@
       <c r="C48" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="24" t="s">
+      <c r="D48" s="28"/>
+      <c r="E48" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="26" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>379</v>
       </c>
@@ -3454,31 +3472,31 @@
       <c r="I49" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="8" t="s">
-        <v>426</v>
+      <c r="J49" s="27"/>
+      <c r="K49" s="22" t="s">
+        <v>459</v>
       </c>
       <c r="L49" s="15" t="s">
         <v>425</v>
       </c>
       <c r="M49" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
@@ -3487,25 +3505,25 @@
       <c r="C51" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="27" t="s">
         <v>149</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="27" t="s">
         <v>167</v>
       </c>
       <c r="K51" s="4" t="s">
@@ -3519,15 +3537,15 @@
       <c r="C52" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
       <c r="H52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
       <c r="K52" s="4" t="s">
         <v>366</v>
       </c>
@@ -3539,15 +3557,15 @@
       <c r="C53" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
       <c r="H53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="4" t="s">
         <v>367</v>
       </c>
@@ -3559,15 +3577,15 @@
       <c r="C54" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
       <c r="H54" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
       <c r="K54" s="4" t="s">
         <v>368</v>
       </c>
@@ -3579,15 +3597,15 @@
       <c r="C55" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
       <c r="H55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
       <c r="K55" s="4" t="s">
         <v>369</v>
       </c>
@@ -3599,15 +3617,15 @@
       <c r="C56" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
       <c r="H56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
       <c r="K56" s="4" t="s">
         <v>370</v>
       </c>
@@ -3619,15 +3637,15 @@
       <c r="C57" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
       <c r="H57" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
       <c r="K57" s="4" t="s">
         <v>371</v>
       </c>
@@ -3639,15 +3657,15 @@
       <c r="C58" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
       <c r="H58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="4" t="s">
         <v>372</v>
       </c>
@@ -3714,7 +3732,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3865,7 +3883,7 @@
         <v>296</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -3876,7 +3894,7 @@
         <v>297</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -3892,13 +3910,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>299</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -3931,7 +3949,7 @@
         <v>302</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -4173,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D609A2B4-8292-48E8-B4B9-9B7D2C2AC07C}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4236,10 +4254,10 @@
         <v>393</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -4270,17 +4288,17 @@
       <c r="J2" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="24" t="s">
         <v>396</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>416</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4311,14 +4329,14 @@
       <c r="J3" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="23" t="s">
         <v>398</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>417</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4349,14 +4367,14 @@
       <c r="J4" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="23" t="s">
         <v>397</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>415</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -4394,7 +4412,7 @@
         <v>418</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -4424,7 +4442,7 @@
         <v>127</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>413</v>
@@ -4433,7 +4451,7 @@
         <v>419</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -4457,7 +4475,7 @@
         <v>120</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>414</v>
@@ -4466,7 +4484,7 @@
         <v>420</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4491,14 +4509,14 @@
       <c r="J8" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="23" t="s">
         <v>400</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>422</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -4519,7 +4537,7 @@
         <v>421</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -4537,7 +4555,7 @@
         <v>408</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4549,7 +4567,7 @@
         <v>409</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">

--- a/doc/ins_set_plus.xlsx
+++ b/doc/ins_set_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prjs\rv32\v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFEB95D-0C7A-41A6-919B-90E91E4A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4F258-9855-45BF-B637-FBB2F41F0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="31196" windowHeight="17038" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -1914,13 +1914,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2230,30 +2230,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08738A-01D5-4449-8744-5099DC0A4DD7}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="60" style="1" customWidth="1"/>
-    <col min="12" max="12" width="61.125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="61.109375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -2291,22 +2291,22 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>373</v>
       </c>
@@ -2322,26 +2322,26 @@
       <c r="E3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="25" t="s">
         <v>167</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>374</v>
       </c>
@@ -2355,16 +2355,16 @@
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -2375,21 +2375,21 @@
         <v>439</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>194</v>
       </c>
@@ -2400,19 +2400,19 @@
         <v>36</v>
       </c>
       <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -2423,19 +2423,19 @@
         <v>38</v>
       </c>
       <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>196</v>
       </c>
@@ -2446,19 +2446,19 @@
         <v>30</v>
       </c>
       <c r="D8" s="28"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -2469,19 +2469,19 @@
         <v>33</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>198</v>
       </c>
@@ -2495,16 +2495,16 @@
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>199</v>
       </c>
@@ -2515,21 +2515,21 @@
         <v>28</v>
       </c>
       <c r="D11" s="28"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>200</v>
       </c>
@@ -2540,19 +2540,19 @@
         <v>27</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="9" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>201</v>
       </c>
@@ -2562,28 +2562,28 @@
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
         <v>140</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>202</v>
       </c>
@@ -2593,22 +2593,22 @@
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>203</v>
       </c>
@@ -2618,22 +2618,22 @@
       <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>204</v>
       </c>
@@ -2643,20 +2643,20 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>205</v>
       </c>
@@ -2666,20 +2666,20 @@
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>206</v>
       </c>
@@ -2689,22 +2689,22 @@
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>207</v>
       </c>
@@ -2714,20 +2714,20 @@
       <c r="C19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>208</v>
       </c>
@@ -2737,22 +2737,22 @@
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>209</v>
       </c>
@@ -2762,20 +2762,20 @@
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>210</v>
       </c>
@@ -2791,12 +2791,12 @@
       <c r="E22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>211</v>
       </c>
@@ -2814,26 +2814,26 @@
       <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27" t="s">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25" t="s">
         <v>174</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>212</v>
       </c>
@@ -2843,20 +2843,20 @@
       <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>213</v>
       </c>
@@ -2866,20 +2866,20 @@
       <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>214</v>
       </c>
@@ -2889,20 +2889,20 @@
       <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>215</v>
       </c>
@@ -2912,20 +2912,20 @@
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>216</v>
       </c>
@@ -2938,27 +2938,27 @@
       <c r="D28" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="25" t="s">
         <v>176</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>217</v>
       </c>
@@ -2969,19 +2969,19 @@
         <v>47</v>
       </c>
       <c r="D29" s="28"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>218</v>
       </c>
@@ -2992,19 +2992,19 @@
         <v>49</v>
       </c>
       <c r="D30" s="28"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>219</v>
       </c>
@@ -3014,28 +3014,28 @@
       <c r="C31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="25" t="s">
         <v>180</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>220</v>
       </c>
@@ -3045,20 +3045,20 @@
       <c r="C32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>221</v>
       </c>
@@ -3068,20 +3068,20 @@
       <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>222</v>
       </c>
@@ -3091,20 +3091,20 @@
       <c r="C34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>223</v>
       </c>
@@ -3114,20 +3114,20 @@
       <c r="C35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>224</v>
       </c>
@@ -3137,20 +3137,20 @@
       <c r="C36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>225</v>
       </c>
@@ -3163,13 +3163,13 @@
       <c r="D37" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27" t="s">
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25" t="s">
         <v>150</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3179,7 +3179,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>226</v>
       </c>
@@ -3190,11 +3190,11 @@
         <v>128</v>
       </c>
       <c r="D38" s="28"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="1" t="s">
         <v>185</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>227</v>
       </c>
@@ -3215,13 +3215,13 @@
       <c r="D39" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="1" t="s">
         <v>191</v>
       </c>
@@ -3229,22 +3229,22 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>376</v>
       </c>
@@ -3257,20 +3257,20 @@
       <c r="D41" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27" t="s">
+      <c r="F41" s="25"/>
+      <c r="G41" s="25" t="s">
         <v>149</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="25" t="s">
         <v>238</v>
       </c>
       <c r="K41" s="8" t="s">
@@ -3280,7 +3280,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>377</v>
       </c>
@@ -3291,19 +3291,19 @@
         <v>231</v>
       </c>
       <c r="D42" s="28"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
       <c r="K42" s="8" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>378</v>
       </c>
@@ -3314,19 +3314,19 @@
         <v>230</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
       <c r="K43" s="8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>375</v>
       </c>
@@ -3337,16 +3337,16 @@
         <v>235</v>
       </c>
       <c r="D44" s="28"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27" t="s">
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25" t="s">
         <v>236</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
       <c r="K44" s="8" t="s">
         <v>437</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>244</v>
       </c>
@@ -3365,19 +3365,19 @@
         <v>234</v>
       </c>
       <c r="D45" s="28"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
       <c r="K45" s="8" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>245</v>
       </c>
@@ -3388,19 +3388,19 @@
         <v>233</v>
       </c>
       <c r="D46" s="28"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
       <c r="K46" s="8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>246</v>
       </c>
@@ -3411,14 +3411,14 @@
         <v>239</v>
       </c>
       <c r="D47" s="28"/>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="22" t="s">
         <v>458</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>247</v>
       </c>
@@ -3434,19 +3434,19 @@
         <v>240</v>
       </c>
       <c r="D48" s="28"/>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
       <c r="K48" s="22" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="29.05" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>379</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="I49" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J49" s="27"/>
+      <c r="J49" s="25"/>
       <c r="K49" s="22" t="s">
         <v>459</v>
       </c>
@@ -3483,227 +3483,195 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="25" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="25" t="s">
         <v>149</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="J51" s="27" t="s">
+      <c r="J51" s="25" t="s">
         <v>167</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
       <c r="K52" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
       <c r="K53" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
       <c r="K54" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
       <c r="K56" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
       <c r="K57" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
       <c r="H58" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
       <c r="K58" s="4" t="s">
         <v>372</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="E41:F46"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J13:J21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J3:J12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="E31:E36"/>
@@ -3720,6 +3688,38 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="E23:F27"/>
+    <mergeCell ref="J13:J21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J3:J12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="E41:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3735,15 +3735,15 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="10" customWidth="1"/>
-    <col min="2" max="2" width="43.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="10" customWidth="1"/>
     <col min="4" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>146</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>249</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>284</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>250</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>251</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>252</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>253</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>254</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>255</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>256</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>257</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>258</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>259</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>260</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>261</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>444</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>262</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>263</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>264</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>265</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>266</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>267</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>268</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>269</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>270</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>271</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>272</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>273</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>274</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>275</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>276</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>277</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>278</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>279</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>280</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>281</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>282</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>283</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>392</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4195,28 +4195,28 @@
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="4.75" style="13" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="13" customWidth="1"/>
-    <col min="7" max="7" width="4.75" style="13" customWidth="1"/>
-    <col min="8" max="9" width="6.625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="26.625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="40.875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" style="13" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="40.88671875" style="17" customWidth="1"/>
     <col min="14" max="14" width="9" style="13"/>
-    <col min="15" max="15" width="7.5" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" style="10" customWidth="1"/>
     <col min="16" max="16" width="14" style="10" customWidth="1"/>
     <col min="17" max="38" width="9" style="10"/>
     <col min="39" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>66</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>67</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>68</v>
       </c>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>69</v>
       </c>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>70</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>71</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>72</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>73</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E11" s="18"/>
       <c r="J11" s="10" t="s">
         <v>411</v>
@@ -4570,14 +4570,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E13" s="18"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E14" s="18"/>
     </row>
   </sheetData>
